--- a/experiment result cnn/1024_0.1_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/1024_0.1_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00651914451500521</v>
+        <v>0.003511028299526835</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008443192384808373</v>
+        <v>0.001642579255024652</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009899633338855515</v>
+        <v>0.001222029732539654</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00848687515683583</v>
+        <v>0.004475033529976931</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.006209258073924471</v>
+        <v>0.001504072602877984</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004349038046254975</v>
+        <v>0.0005604319306582297</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008682514968980173</v>
+        <v>0.001682483838521822</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.005906566265434366</v>
+        <v>0.001243051089777661</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007139212174451767</v>
+        <v>0.001401303919226819</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01089873647421239</v>
+        <v>0.002144972468712803</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00405326565490396</v>
+        <v>0.003177297117071991</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00614693041017514</v>
+        <v>0.002510653207271084</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006531550166646641</v>
+        <v>0.003131919015684583</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004475510952330674</v>
+        <v>0.00618881196596152</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.004214457544588933</v>
+        <v>0.003434287980453552</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.007405495360423784</v>
+        <v>0.001041203838194797</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006040299292952552</v>
+        <v>0.0008607379742181287</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01327511218575863</v>
+        <v>0.0001000139999992397</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.005626780834881951</v>
+        <v>0.002510002331984011</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.004612001839037796</v>
+        <v>0.009962339736239261</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0129892707016557</v>
+        <v>0.001221321925258635</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01341423706582468</v>
+        <v>0.0005006138802311798</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01038040559753586</v>
+        <v>0.001983217651511318</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007603617101403171</v>
+        <v>0.001021781483201122</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.009411530469878368</v>
+        <v>0.002151561849489429</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02079686940625209</v>
+        <v>0.0006008118411646237</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005664095123914287</v>
+        <v>0.003143354551116361</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01090761630940871</v>
+        <v>0.001564486136823202</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01755691027168131</v>
+        <v>0.001321615856895142</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.005503125613142715</v>
+        <v>0.005383125918537503</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005092634469275317</v>
+        <v>0.00411286693457581</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.003738526019647591</v>
+        <v>0.0006605299419302373</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.006543303460862911</v>
+        <v>0.001906823227847088</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.002964907872484564</v>
+        <v>0.001483242906860577</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.005561720414188061</v>
+        <v>0.006999515299080836</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.007680961032725098</v>
+        <v>0.00360190865450187</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01221183556230022</v>
+        <v>0.001063485197296551</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.004684139953826372</v>
+        <v>0.0001400299997959378</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.006523021617101115</v>
+        <v>0.0004601699874891563</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005669009950323755</v>
+        <v>0.00248724678079112</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0170180546978194</v>
+        <v>0.002391074702970146</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008775011562346882</v>
+        <v>0.001545684150148329</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.007403806608796764</v>
+        <v>0.0009010659371924643</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.005518977214614991</v>
+        <v>0.0009224670103996156</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01476484689039223</v>
+        <v>0.0102957674163838</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0258398977888082</v>
+        <v>0.004706368566928599</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.00807142976133091</v>
+        <v>0.0007206479439735459</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02382152219503727</v>
+        <v>0.005270418172217328</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00738881221514575</v>
+        <v>0.001061333986781077</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.006092898640525406</v>
+        <v>0.00184394256485098</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.00921639172339796</v>
+        <v>0.02524546726276242</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.007644776061377809</v>
+        <v>0.04929333517556943</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005235444341902659</v>
+        <v>0.003489237247775907</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04124666202439237</v>
+        <v>0.01401708975287786</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02102984770613924</v>
+        <v>0.003032127187253576</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008922094767916555</v>
+        <v>0.06472256263381064</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01269783652675083</v>
+        <v>0.002125386768056277</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02388035700346583</v>
+        <v>0.03320715018577157</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01705534980659653</v>
+        <v>0.006476089413771755</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.005394200773723238</v>
+        <v>0.01867467481538616</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02821962880244544</v>
+        <v>0.01161503347625313</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01086287149046123</v>
+        <v>0.01125797322655418</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.009041351079810215</v>
+        <v>0.006779407746236863</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02630507898598037</v>
+        <v>0.009259996862919725</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03166360902488556</v>
+        <v>0.00317174069081136</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.001402923462358536</v>
+        <v>0.05418446912491413</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04495243009310772</v>
+        <v>0.03481408979954628</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0007583710392776989</v>
+        <v>0.0569193058672321</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02429687062659175</v>
+        <v>0.005054538782922413</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01144664282475663</v>
+        <v>0.00931008372037277</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01784668881649012</v>
+        <v>0.06532159388555771</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04465979021665495</v>
+        <v>0.02444825590231911</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002456637528964324</v>
+        <v>0.06461953475957904</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01030046337691616</v>
+        <v>0.05094088673012161</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001137313926635323</v>
+        <v>0.04649560528856567</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.009680550603343125</v>
+        <v>0.04826242959234821</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00690894029766465</v>
+        <v>0.008778131568353883</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03925636033282771</v>
+        <v>0.09444071429920767</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.002707743460538432</v>
+        <v>0.00834832631457158</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.005883515694063325</v>
+        <v>0.02035857115082158</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01541888754539902</v>
+        <v>0.04661577933334376</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01548348913377457</v>
+        <v>0.002948959775017566</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.009822819589407023</v>
+        <v>0.02300571875354524</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.005280257184528234</v>
+        <v>0.01988732000572963</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.004157612083599899</v>
+        <v>0.02274483586453534</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.003922694269812265</v>
+        <v>0.01559446324466535</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002316624781911598</v>
+        <v>0.006964384272036552</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0374989085263925</v>
+        <v>0.05832605237710971</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01974718467707081</v>
+        <v>0.01919674741261203</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02027917535406983</v>
+        <v>0.00387601370815049</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0532214279682456</v>
+        <v>0.2967352096103579</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.00589487715870615</v>
+        <v>0.1007498153935233</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01197615280510766</v>
+        <v>0.01978137568781555</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.07484886268030705</v>
+        <v>0.0543254030930175</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01665740780007884</v>
+        <v>0.002125809123116489</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03653036354406136</v>
+        <v>0.03479105152093239</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0003401487465633634</v>
+        <v>0.08722977133564876</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002061927853032095</v>
+        <v>0.1521507530259976</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02791827876491175</v>
+        <v>0.0124162735913146</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.003732799892049323</v>
+        <v>0.09442751099095245</v>
       </c>
     </row>
   </sheetData>
